--- a/pdfs/emplo.xlsx
+++ b/pdfs/emplo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+  <si>
+    <t>test</t>
+  </si>
   <si>
     <t>Sonya</t>
   </si>
@@ -80,7 +83,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -88,9 +91,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -128,7 +131,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -198,7 +201,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -383,16 +386,16 @@
         <v>7.0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -400,16 +403,16 @@
         <v>8.0</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -417,16 +420,16 @@
         <v>9.0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/pdfs/emplo.xlsx
+++ b/pdfs/emplo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,45 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="122211"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Sonya</t>
-  </si>
-  <si>
-    <t>75K</t>
-  </si>
-  <si>
-    <t>SALES</t>
-  </si>
-  <si>
-    <t>Rupert</t>
-  </si>
-  <si>
-    <t>Kris</t>
-  </si>
-  <si>
-    <t>85K</t>
-  </si>
-  <si>
-    <t>Dave</t>
-  </si>
-  <si>
-    <t>90K</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -83,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -91,9 +58,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -131,7 +98,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -201,7 +168,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -380,59 +347,7 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/pdfs/emplo.xlsx
+++ b/pdfs/emplo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,9 +15,143 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="42">
+  <si>
+    <t>В текущих ценах</t>
+  </si>
+  <si>
+    <t>Трлн. Руб.</t>
+  </si>
+  <si>
+    <t>Дефлятор</t>
+  </si>
+  <si>
+    <t>I квартал</t>
+  </si>
+  <si>
+    <t>II квартал</t>
+  </si>
+  <si>
+    <t>III квартал</t>
+  </si>
+  <si>
+    <t>IV квартал</t>
+  </si>
+  <si>
+    <t>OverRide Last Name</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>blabla</t>
+  </si>
+  <si>
+    <t>bla</t>
+  </si>
+  <si>
+    <t>Sonya</t>
+  </si>
+  <si>
+    <t>75K</t>
+  </si>
+  <si>
+    <t>SALES</t>
+  </si>
+  <si>
+    <t>Rupert</t>
+  </si>
+  <si>
+    <t>Kris</t>
+  </si>
+  <si>
+    <t>85K</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>90K</t>
+  </si>
+  <si>
+    <t>ВВП</t>
+  </si>
+  <si>
+    <t>ВДС</t>
+  </si>
+  <si>
+    <t>Сельхоз</t>
+  </si>
+  <si>
+    <t>Добыча ПИ</t>
+  </si>
+  <si>
+    <t>Обработка</t>
+  </si>
+  <si>
+    <t>ЖКХ электр</t>
+  </si>
+  <si>
+    <t>ЖКХ вода</t>
+  </si>
+  <si>
+    <t>Строительство</t>
+  </si>
+  <si>
+    <t>Торговля</t>
+  </si>
+  <si>
+    <t>Транспорт и хранение</t>
+  </si>
+  <si>
+    <t>Гостиницы, общепит</t>
+  </si>
+  <si>
+    <t>Информация и связь</t>
+  </si>
+  <si>
+    <t>Финансы</t>
+  </si>
+  <si>
+    <t>Недвижимость</t>
+  </si>
+  <si>
+    <t>Научная деят</t>
+  </si>
+  <si>
+    <t>Административные услуги</t>
+  </si>
+  <si>
+    <t>Гос., военка, соц</t>
+  </si>
+  <si>
+    <t>Образование</t>
+  </si>
+  <si>
+    <t>Здравоохранение</t>
+  </si>
+  <si>
+    <t>Культура и спорт</t>
+  </si>
+  <si>
+    <t>Прочие</t>
+  </si>
+  <si>
+    <t>Домохозяйства как предприним</t>
+  </si>
+  <si>
+    <t>Чистые налоги</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +159,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -42,25 +202,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,9 +301,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -132,9 +335,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,9 +370,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,36 +546,1285 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" customWidth="true" width="14.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1995</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>234.97749999999999</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>24032.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>21721.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>421.05967535999997</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>1538.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>448.23270719999988</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1996</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>425.2888999999999</v>
+      </c>
+      <c r="D6" s="4">
+        <v>85.134680475662293</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>468.41849999999994</v>
+      </c>
+      <c r="D7" s="4">
+        <v>49.586779402391187</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>501.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>548.87810000000002</v>
+      </c>
+      <c r="D8" s="4">
+        <v>37.948674472761866</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>114.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>565.23960000000011</v>
+      </c>
+      <c r="D9" s="4">
+        <v>30.127171358859016</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>1400.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1997</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>512.36879999999996</v>
+      </c>
+      <c r="D10" s="4">
+        <v>21.008976991342081</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <v>3327.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>555.07680000000005</v>
+      </c>
+      <c r="D11" s="4">
+        <v>19.489821163561231</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>634.15920000000006</v>
+      </c>
+      <c r="D12" s="4">
+        <v>12.343469649307153</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12">
+        <v>190.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4">
+        <v>640.90919999999994</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9.4304873882589533</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>502.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>1998</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>550.8655</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9.1322657567754106</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14">
+        <v>882.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4">
+        <v>602.45300000000009</v>
+      </c>
+      <c r="D15" s="4">
+        <v>9.6147116635667373</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15">
+        <v>1890.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>675.45709999999997</v>
+      </c>
+      <c r="D16" s="4">
+        <v>16.82065660634602</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16">
+        <v>909.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4">
+        <v>800.84739999999999</v>
+      </c>
+      <c r="D17" s="4">
+        <v>37.508180190264142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17">
+        <v>465.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>1999</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4">
+        <v>901.34680000000014</v>
+      </c>
+      <c r="D18" s="4">
+        <v>66.641691561874666</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18">
+        <v>1593.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1101.5012000000002</v>
+      </c>
+      <c r="D19" s="4">
+        <v>77.252070982132437</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19">
+        <v>542.20000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1373.0663000000002</v>
+      </c>
+      <c r="D20" s="4">
+        <v>82.375213782559797</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20">
+        <v>797.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1447.3191999999999</v>
+      </c>
+      <c r="D21" s="4">
+        <v>61.244999264364111</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21">
+        <v>197.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1527.4226999999994</v>
+      </c>
+      <c r="D22" s="4">
+        <v>52.088646413610292</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1696.6486000000002</v>
+      </c>
+      <c r="D23" s="4">
+        <v>39.732904017761314</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23">
+        <v>118.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2037.845</v>
+      </c>
+      <c r="D24" s="4">
+        <v>34.255212026495457</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24">
+        <v>2310.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2043.7299999999998</v>
+      </c>
+      <c r="D25" s="4">
+        <v>30.429556128326482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1900.8727999999999</v>
+      </c>
+      <c r="D26" s="4">
+        <v>18.87918259122408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2105.0056999999993</v>
+      </c>
+      <c r="D27" s="4">
+        <v>18.103859558858957</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2487.8722000000002</v>
+      </c>
+      <c r="D28" s="4">
+        <v>15.141328817607388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2449.8317000000002</v>
+      </c>
+      <c r="D29" s="4">
+        <v>14.664048469863573</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2262.1866084403609</v>
+      </c>
+      <c r="D30" s="4">
+        <v>14.652960869368513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2528.6709777063229</v>
+      </c>
+      <c r="D31" s="4">
+        <v>15.057287185719076</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3012.8060670376435</v>
+      </c>
+      <c r="D32" s="4">
+        <v>15.963257102005841</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3026.8712612516092</v>
+      </c>
+      <c r="D33" s="4">
+        <v>16.37966970920202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2851.1054914710994</v>
+      </c>
+      <c r="D34" s="4">
+        <v>17.126147988359634</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3101.6935991534233</v>
+      </c>
+      <c r="D35" s="4">
+        <v>13.830836501962594</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3600.220823900323</v>
+      </c>
+      <c r="D36" s="4">
+        <v>13.430783887737704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4">
+        <v>3655.2138648971186</v>
+      </c>
+      <c r="D37" s="4">
+        <v>12.094918706245551</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="4">
+        <v>3515.656534454914</v>
+      </c>
+      <c r="D38" s="4">
+        <v>14.982496238464549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="4">
+        <v>3971.6079652659473</v>
+      </c>
+      <c r="D39" s="4">
+        <v>18.529047547229055</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4">
+        <v>4594.0223040986384</v>
+      </c>
+      <c r="D40" s="4">
+        <v>18.895759566407833</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4">
+        <v>4945.904056180495</v>
+      </c>
+      <c r="D41" s="4">
+        <v>27.3879182948112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4">
+        <v>4458.6089739829531</v>
+      </c>
+      <c r="D42" s="4">
+        <v>20.123356840952596</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4">
+        <v>5077.8685073150136</v>
+      </c>
+      <c r="D43" s="4">
+        <v>20.60130027692739</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="4">
+        <v>5845.237908965355</v>
+      </c>
+      <c r="D44" s="4">
+        <v>20.078142605786169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4">
+        <v>6228.0500985636545</v>
+      </c>
+      <c r="D45" s="4">
+        <v>16.833298055606377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="4">
+        <v>5792.9485048857468</v>
+      </c>
+      <c r="D46" s="4">
+        <v>21.090575052893939</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4">
+        <v>6368.0703292722728</v>
+      </c>
+      <c r="D47" s="4">
+        <v>16.031012874551294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="4">
+        <v>7275.8471420383112</v>
+      </c>
+      <c r="D48" s="4">
+        <v>15.051057378199317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4">
+        <v>7480.335398903374</v>
+      </c>
+      <c r="D49" s="4">
+        <v>10.310828188749753</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="4">
+        <v>6780.2228485849164</v>
+      </c>
+      <c r="D50" s="4">
+        <v>8.3027966454370983</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="4">
+        <v>7767.5171267478645</v>
+      </c>
+      <c r="D51" s="4">
+        <v>12.297969690172721</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="4">
+        <v>8902.7336504636969</v>
+      </c>
+      <c r="D52" s="4">
+        <v>13.115669015769839</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="4">
+        <v>9797.039602958921</v>
+      </c>
+      <c r="D53" s="4">
+        <v>19.952320827228817</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="4">
+        <v>8877.6533542806683</v>
+      </c>
+      <c r="D54" s="4">
+        <v>19.930012840748731</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="4">
+        <v>10238.280014139516</v>
+      </c>
+      <c r="D55" s="4">
+        <v>22.156879341606668</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="4">
+        <v>11542.047548388042</v>
+      </c>
+      <c r="D56" s="4">
+        <v>21.834045240104018</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="4">
+        <v>10618.868270134297</v>
+      </c>
+      <c r="D57" s="4">
+        <v>9.8406565439906615</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>2009</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="4">
+        <v>8334.6327818815698</v>
+      </c>
+      <c r="D58" s="4">
+        <v>3.3976916786311051</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="4">
+        <v>9244.8288207423739</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1.6297175683420022</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="4">
+        <v>10411.333955988388</v>
+      </c>
+      <c r="D60" s="4">
+        <v>-1.2888646801975625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="4">
+        <v>10816.423016343833</v>
+      </c>
+      <c r="D61" s="4">
+        <v>4.5665035195623602</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2010</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="4">
+        <v>9995.7582587564557</v>
+      </c>
+      <c r="D62" s="4">
+        <v>15.240919725674601</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="4">
+        <v>10977.035260722871</v>
+      </c>
+      <c r="D63" s="4">
+        <v>13.082654808519848</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="4">
+        <v>12086.463958780156</v>
+      </c>
+      <c r="D64" s="4">
+        <v>11.811288961842109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="4">
+        <v>13249.283711436283</v>
+      </c>
+      <c r="D65" s="4">
+        <v>16.5704445808542</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>2011</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="4">
+        <v>13028.8</v>
+      </c>
+      <c r="D66" s="4">
+        <v>15.801484785899362</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="4">
+        <v>14481.1</v>
+      </c>
+      <c r="D67" s="4">
+        <v>17.972072578486916</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="4">
+        <v>15805.6</v>
+      </c>
+      <c r="D68" s="4">
+        <v>16.04049551472464</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A66:A69"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2">
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="n">
+        <v>24032.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="n">
+        <v>21721.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1538.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2224.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2941.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="n">
+        <v>501.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>114.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1400.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3327.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1486.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="n">
+        <v>190.3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>502.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="n">
+        <v>882.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1890.1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="n">
+        <v>909.3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="n">
+        <v>465.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1593.2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="n">
+        <v>542.2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="n">
+        <v>797.6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="n">
+        <v>197.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="n">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="n">
+        <v>118.4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2310.9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
